--- a/Tseng2022/Host Trait Model/Output/table_predicted_hosts_infection.xlsx
+++ b/Tseng2022/Host Trait Model/Output/table_predicted_hosts_infection.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="467">
   <si>
     <t xml:space="preserve">ord</t>
   </si>
@@ -678,414 +678,414 @@
     <t xml:space="preserve">Paguma</t>
   </si>
   <si>
+    <t xml:space="preserve">Ovis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cervidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cervus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagenodelphis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagenorhynchus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lissodelphis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orcaella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eschrichtiidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eschrichtius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giraffa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iniidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lipotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monodontidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delphinapterus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neobalaenidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caperea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neophocaena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kogia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platanistidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platanista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziphiidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berardius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ziphius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gracilinanus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marmosops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thylamys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erinaceidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hemiechinus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anourosorex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blarinella</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chimarrogale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myosorex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Neomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Notiosorex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paracrocidura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sylvisorex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hippidion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mylodontidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mylodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ateles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brachyteles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colobus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erythrocebus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mandrillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pygathrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rungwecebus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semnopithecus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pitheciidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cacajao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiropotes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calomyscidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calomyscus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caviidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abrothrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aegialomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Akodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andalgalomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arborimus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auliscomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caryomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chilomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eothenomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Habromys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juliomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microryzomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ochrotomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oryzomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osgoodomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Podomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rhagomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scolomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zygodontomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salpingotulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dryomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glirulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Myomimus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heteromyidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chaetodipus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microdipodops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perognathus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiropodomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coccymys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haeromys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lorentzimys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mirzamys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nesokia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niviventer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudohydromys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monticolomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petromyscus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biswamoyopterus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callosciurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Callospermophilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dremomys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exilisciurus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funambulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petaurillus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratufa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Urocitellus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xerospermophilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrysocyon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pseudalopex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galidictis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mungotictis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miracinonyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helogale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hyaena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enhydra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galictis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ictonyx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lutra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melogale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poecilogale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pteronura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctocephalus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ommatophoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prionodontidae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prionodon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ailuropoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctodus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctictis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arctogalidia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civettictis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cynogale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diplogale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viverricula</t>
+  </si>
+  <si>
     <t xml:space="preserve">Budorcas</t>
   </si>
   <si>
-    <t xml:space="preserve">Ovis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cervidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cervus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rusa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagenodelphis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lagenorhynchus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lissodelphis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Orcaella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eschrichtiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eschrichtius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Giraffa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iniidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lipotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monodontidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delphinapterus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monodon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neobalaenidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caperea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neophocaena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kogia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platanistidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Platanista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziphiidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Berardius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ziphius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gracilinanus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marmosops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thylamys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erinaceidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hemiechinus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anourosorex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blarinella</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chimarrogale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myosorex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Neomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notiosorex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paracrocidura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sylvisorex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hippidion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mylodontidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mylodon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ateles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brachyteles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colobus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erythrocebus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandrillus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pygathrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rungwecebus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Semnopithecus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pitheciidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cacajao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiropotes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calomyscidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calomyscus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caviidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abrothrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aegialomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Akodon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Andalgalomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arborimus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auliscomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caryomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chilomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eothenomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Habromys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juliomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microryzomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ochrotomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oryzomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Osgoodomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Podomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rhagomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scolomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zygodontomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salpingotulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dryomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glirulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Myomimus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heteromyidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chaetodipus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Microdipodops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Perognathus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chiropodomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coccymys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Haeromys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lorentzimys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mirzamys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nesokia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niviventer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudohydromys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monticolomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petromyscus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biswamoyopterus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callosciurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Callospermophilus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dremomys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exilisciurus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Funambulus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Petaurillus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratufa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Urocitellus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xerospermophilus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chrysocyon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pseudalopex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galidictis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mungotictis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miracinonyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helogale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hyaena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enhydra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Galictis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ictonyx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lutra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melogale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Poecilogale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pteronura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arctocephalus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ommatophoca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phoca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prionodontidae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prionodon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ailuropoda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arctodus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arctictis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arctogalidia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civettictis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cynogale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diplogale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viverricula</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capricornis</t>
   </si>
   <si>
@@ -1234,6 +1234,9 @@
   </si>
   <si>
     <t xml:space="preserve">Microcavia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bibimys</t>
   </si>
   <si>
     <t xml:space="preserve">Brucepattersonius</t>
@@ -3805,7 +3808,7 @@
         <v>26</v>
       </c>
       <c r="C51" t="s">
-        <v>221</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
@@ -3813,10 +3816,10 @@
         <v>22</v>
       </c>
       <c r="B52" t="s">
-        <v>26</v>
+        <v>221</v>
       </c>
       <c r="C52" t="s">
-        <v>123</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53">
@@ -3824,7 +3827,7 @@
         <v>22</v>
       </c>
       <c r="B53" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C53" t="s">
         <v>223</v>
@@ -3835,10 +3838,10 @@
         <v>22</v>
       </c>
       <c r="B54" t="s">
-        <v>222</v>
+        <v>34</v>
       </c>
       <c r="C54" t="s">
-        <v>224</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55">
@@ -3849,7 +3852,7 @@
         <v>34</v>
       </c>
       <c r="C55" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -3860,7 +3863,7 @@
         <v>34</v>
       </c>
       <c r="C56" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="57">
@@ -3871,7 +3874,7 @@
         <v>34</v>
       </c>
       <c r="C57" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58">
@@ -3915,7 +3918,7 @@
         <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>228</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62">
@@ -3926,7 +3929,7 @@
         <v>34</v>
       </c>
       <c r="C62" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63">
@@ -3937,7 +3940,7 @@
         <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64">
@@ -3948,7 +3951,7 @@
         <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="65">
@@ -3956,10 +3959,10 @@
         <v>22</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>228</v>
       </c>
       <c r="C65" t="s">
-        <v>130</v>
+        <v>229</v>
       </c>
     </row>
     <row r="66">
@@ -3967,7 +3970,7 @@
         <v>22</v>
       </c>
       <c r="B66" t="s">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="C66" t="s">
         <v>230</v>
@@ -3981,7 +3984,7 @@
         <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>231</v>
+        <v>132</v>
       </c>
     </row>
     <row r="68">
@@ -3989,10 +3992,10 @@
         <v>22</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="C68" t="s">
-        <v>132</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69">
@@ -4000,7 +4003,7 @@
         <v>22</v>
       </c>
       <c r="B69" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C69" t="s">
         <v>233</v>
@@ -4011,10 +4014,10 @@
         <v>22</v>
       </c>
       <c r="B70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="71">
@@ -4022,7 +4025,7 @@
         <v>22</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C71" t="s">
         <v>236</v>
@@ -4033,10 +4036,10 @@
         <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C72" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="73">
@@ -4044,7 +4047,7 @@
         <v>22</v>
       </c>
       <c r="B73" t="s">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="C73" t="s">
         <v>239</v>
@@ -4058,7 +4061,7 @@
         <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>240</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75">
@@ -4066,10 +4069,10 @@
         <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="C75" t="s">
-        <v>133</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76">
@@ -4080,7 +4083,7 @@
         <v>134</v>
       </c>
       <c r="C76" t="s">
-        <v>241</v>
+        <v>135</v>
       </c>
     </row>
     <row r="77">
@@ -4088,10 +4091,10 @@
         <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>134</v>
+        <v>241</v>
       </c>
       <c r="C77" t="s">
-        <v>135</v>
+        <v>242</v>
       </c>
     </row>
     <row r="78">
@@ -4099,10 +4102,10 @@
         <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C78" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="79">
@@ -4110,7 +4113,7 @@
         <v>22</v>
       </c>
       <c r="B79" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C79" t="s">
         <v>245</v>
@@ -4118,10 +4121,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>44</v>
       </c>
       <c r="C80" t="s">
         <v>246</v>
@@ -4151,13 +4154,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B83" t="s">
-        <v>44</v>
+        <v>249</v>
       </c>
       <c r="C83" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84">
@@ -4165,7 +4168,7 @@
         <v>46</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
         <v>251</v>
@@ -4201,7 +4204,7 @@
         <v>47</v>
       </c>
       <c r="C87" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88">
@@ -4212,7 +4215,7 @@
         <v>47</v>
       </c>
       <c r="C88" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89">
@@ -4223,7 +4226,7 @@
         <v>47</v>
       </c>
       <c r="C89" t="s">
-        <v>137</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90">
@@ -4267,7 +4270,7 @@
         <v>47</v>
       </c>
       <c r="C93" t="s">
-        <v>258</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94">
@@ -4278,7 +4281,7 @@
         <v>47</v>
       </c>
       <c r="C94" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95">
@@ -4289,7 +4292,7 @@
         <v>47</v>
       </c>
       <c r="C95" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96">
@@ -4300,15 +4303,15 @@
         <v>47</v>
       </c>
       <c r="C96" t="s">
-        <v>140</v>
+        <v>258</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B97" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="C97" t="s">
         <v>259</v>
@@ -4319,10 +4322,10 @@
         <v>52</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="C98" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
     </row>
     <row r="99">
@@ -4333,7 +4336,7 @@
         <v>141</v>
       </c>
       <c r="C99" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="100">
@@ -4344,7 +4347,7 @@
         <v>141</v>
       </c>
       <c r="C100" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101">
@@ -4355,18 +4358,18 @@
         <v>141</v>
       </c>
       <c r="C101" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>52</v>
+        <v>146</v>
       </c>
       <c r="B102" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C102" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
@@ -4374,18 +4377,18 @@
         <v>146</v>
       </c>
       <c r="B103" t="s">
-        <v>147</v>
+        <v>260</v>
       </c>
       <c r="C103" t="s">
-        <v>148</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>146</v>
+        <v>57</v>
       </c>
       <c r="B104" t="s">
-        <v>261</v>
+        <v>58</v>
       </c>
       <c r="C104" t="s">
         <v>262</v>
@@ -4410,7 +4413,7 @@
         <v>58</v>
       </c>
       <c r="C106" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107">
@@ -4421,7 +4424,7 @@
         <v>58</v>
       </c>
       <c r="C107" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108">
@@ -4429,10 +4432,10 @@
         <v>57</v>
       </c>
       <c r="B108" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C108" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="109">
@@ -4440,10 +4443,10 @@
         <v>57</v>
       </c>
       <c r="B109" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C109" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110">
@@ -4454,7 +4457,7 @@
         <v>66</v>
       </c>
       <c r="C110" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111">
@@ -4476,7 +4479,7 @@
         <v>66</v>
       </c>
       <c r="C112" t="s">
-        <v>266</v>
+        <v>153</v>
       </c>
     </row>
     <row r="113">
@@ -4487,7 +4490,7 @@
         <v>66</v>
       </c>
       <c r="C113" t="s">
-        <v>153</v>
+        <v>266</v>
       </c>
     </row>
     <row r="114">
@@ -4498,7 +4501,7 @@
         <v>66</v>
       </c>
       <c r="C114" t="s">
-        <v>267</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115">
@@ -4509,7 +4512,7 @@
         <v>66</v>
       </c>
       <c r="C115" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116">
@@ -4520,7 +4523,7 @@
         <v>66</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117">
@@ -4531,7 +4534,7 @@
         <v>66</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>267</v>
       </c>
     </row>
     <row r="118">
@@ -4542,7 +4545,7 @@
         <v>66</v>
       </c>
       <c r="C118" t="s">
-        <v>268</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119">
@@ -4553,7 +4556,7 @@
         <v>66</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120">
@@ -4586,7 +4589,7 @@
         <v>66</v>
       </c>
       <c r="C122" t="s">
-        <v>271</v>
+        <v>158</v>
       </c>
     </row>
     <row r="123">
@@ -4597,7 +4600,7 @@
         <v>66</v>
       </c>
       <c r="C123" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="124">
@@ -4605,10 +4608,10 @@
         <v>57</v>
       </c>
       <c r="B124" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="C124" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="125">
@@ -4616,10 +4619,10 @@
         <v>57</v>
       </c>
       <c r="B125" t="s">
-        <v>160</v>
+        <v>70</v>
       </c>
       <c r="C125" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
@@ -4630,7 +4633,7 @@
         <v>70</v>
       </c>
       <c r="C126" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="127">
@@ -4638,10 +4641,10 @@
         <v>57</v>
       </c>
       <c r="B127" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C127" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="128">
@@ -4652,7 +4655,7 @@
         <v>73</v>
       </c>
       <c r="C128" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="129">
@@ -4663,7 +4666,7 @@
         <v>73</v>
       </c>
       <c r="C129" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130">
@@ -4671,10 +4674,10 @@
         <v>57</v>
       </c>
       <c r="B130" t="s">
-        <v>73</v>
+        <v>167</v>
       </c>
       <c r="C130" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="131">
@@ -4682,10 +4685,10 @@
         <v>57</v>
       </c>
       <c r="B131" t="s">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="C131" t="s">
-        <v>168</v>
+        <v>272</v>
       </c>
     </row>
     <row r="132">
@@ -4693,7 +4696,7 @@
         <v>57</v>
       </c>
       <c r="B132" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C132" t="s">
         <v>273</v>
@@ -4701,13 +4704,13 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B133" t="s">
-        <v>272</v>
+        <v>169</v>
       </c>
       <c r="C133" t="s">
-        <v>274</v>
+        <v>170</v>
       </c>
     </row>
     <row r="134">
@@ -4718,18 +4721,18 @@
         <v>169</v>
       </c>
       <c r="C134" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B135" t="s">
-        <v>169</v>
+        <v>274</v>
       </c>
       <c r="C135" t="s">
-        <v>171</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136">
@@ -4737,10 +4740,10 @@
         <v>79</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C136" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137">
@@ -4748,7 +4751,7 @@
         <v>79</v>
       </c>
       <c r="B137" t="s">
-        <v>277</v>
+        <v>82</v>
       </c>
       <c r="C137" t="s">
         <v>278</v>
@@ -4784,7 +4787,7 @@
         <v>82</v>
       </c>
       <c r="C140" t="s">
-        <v>281</v>
+        <v>172</v>
       </c>
     </row>
     <row r="141">
@@ -4795,7 +4798,7 @@
         <v>82</v>
       </c>
       <c r="C141" t="s">
-        <v>172</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142">
@@ -4828,7 +4831,7 @@
         <v>82</v>
       </c>
       <c r="C144" t="s">
-        <v>284</v>
+        <v>173</v>
       </c>
     </row>
     <row r="145">
@@ -4839,7 +4842,7 @@
         <v>82</v>
       </c>
       <c r="C145" t="s">
-        <v>173</v>
+        <v>284</v>
       </c>
     </row>
     <row r="146">
@@ -4872,7 +4875,7 @@
         <v>82</v>
       </c>
       <c r="C148" t="s">
-        <v>287</v>
+        <v>174</v>
       </c>
     </row>
     <row r="149">
@@ -4883,7 +4886,7 @@
         <v>82</v>
       </c>
       <c r="C149" t="s">
-        <v>174</v>
+        <v>287</v>
       </c>
     </row>
     <row r="150">
@@ -4916,7 +4919,7 @@
         <v>82</v>
       </c>
       <c r="C152" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153">
@@ -4927,7 +4930,7 @@
         <v>82</v>
       </c>
       <c r="C153" t="s">
-        <v>175</v>
+        <v>290</v>
       </c>
     </row>
     <row r="154">
@@ -4938,7 +4941,7 @@
         <v>82</v>
       </c>
       <c r="C154" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
     </row>
     <row r="155">
@@ -4949,7 +4952,7 @@
         <v>82</v>
       </c>
       <c r="C155" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="156">
@@ -4960,7 +4963,7 @@
         <v>82</v>
       </c>
       <c r="C156" t="s">
-        <v>177</v>
+        <v>291</v>
       </c>
     </row>
     <row r="157">
@@ -4993,7 +4996,7 @@
         <v>82</v>
       </c>
       <c r="C159" t="s">
-        <v>294</v>
+        <v>178</v>
       </c>
     </row>
     <row r="160">
@@ -5004,7 +5007,7 @@
         <v>82</v>
       </c>
       <c r="C160" t="s">
-        <v>178</v>
+        <v>294</v>
       </c>
     </row>
     <row r="161">
@@ -5015,7 +5018,7 @@
         <v>82</v>
       </c>
       <c r="C161" t="s">
-        <v>295</v>
+        <v>179</v>
       </c>
     </row>
     <row r="162">
@@ -5026,7 +5029,7 @@
         <v>82</v>
       </c>
       <c r="C162" t="s">
-        <v>179</v>
+        <v>295</v>
       </c>
     </row>
     <row r="163">
@@ -5048,7 +5051,7 @@
         <v>82</v>
       </c>
       <c r="C164" t="s">
-        <v>297</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165">
@@ -5059,7 +5062,7 @@
         <v>82</v>
       </c>
       <c r="C165" t="s">
-        <v>180</v>
+        <v>297</v>
       </c>
     </row>
     <row r="166">
@@ -5067,7 +5070,7 @@
         <v>79</v>
       </c>
       <c r="B166" t="s">
-        <v>82</v>
+        <v>181</v>
       </c>
       <c r="C166" t="s">
         <v>298</v>
@@ -5081,7 +5084,7 @@
         <v>181</v>
       </c>
       <c r="C167" t="s">
-        <v>299</v>
+        <v>182</v>
       </c>
     </row>
     <row r="168">
@@ -5089,10 +5092,10 @@
         <v>79</v>
       </c>
       <c r="B168" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C168" t="s">
-        <v>182</v>
+        <v>299</v>
       </c>
     </row>
     <row r="169">
@@ -5114,7 +5117,7 @@
         <v>183</v>
       </c>
       <c r="C170" t="s">
-        <v>301</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171">
@@ -5125,7 +5128,7 @@
         <v>183</v>
       </c>
       <c r="C171" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172">
@@ -5136,7 +5139,7 @@
         <v>183</v>
       </c>
       <c r="C172" t="s">
-        <v>185</v>
+        <v>301</v>
       </c>
     </row>
     <row r="173">
@@ -5144,10 +5147,10 @@
         <v>79</v>
       </c>
       <c r="B173" t="s">
-        <v>183</v>
+        <v>302</v>
       </c>
       <c r="C173" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="174">
@@ -5155,7 +5158,7 @@
         <v>79</v>
       </c>
       <c r="B174" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C174" t="s">
         <v>304</v>
@@ -5166,7 +5169,7 @@
         <v>79</v>
       </c>
       <c r="B175" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C175" t="s">
         <v>305</v>
@@ -5177,7 +5180,7 @@
         <v>79</v>
       </c>
       <c r="B176" t="s">
-        <v>303</v>
+        <v>87</v>
       </c>
       <c r="C176" t="s">
         <v>306</v>
@@ -5268,7 +5271,7 @@
         <v>87</v>
       </c>
       <c r="C184" t="s">
-        <v>314</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185">
@@ -5276,10 +5279,10 @@
         <v>79</v>
       </c>
       <c r="B185" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="186">
@@ -5290,7 +5293,7 @@
         <v>93</v>
       </c>
       <c r="C186" t="s">
-        <v>187</v>
+        <v>314</v>
       </c>
     </row>
     <row r="187">
@@ -5309,7 +5312,7 @@
         <v>79</v>
       </c>
       <c r="B188" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C188" t="s">
         <v>316</v>
@@ -5412,17 +5415,6 @@
       </c>
       <c r="C197" t="s">
         <v>325</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>79</v>
-      </c>
-      <c r="B198" t="s">
-        <v>95</v>
-      </c>
-      <c r="C198" t="s">
-        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -5480,7 +5472,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5">
@@ -5524,7 +5516,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9">
@@ -5568,7 +5560,7 @@
         <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13">
@@ -5579,7 +5571,7 @@
         <v>192</v>
       </c>
       <c r="C13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="14">
@@ -5656,7 +5648,7 @@
         <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21">
@@ -5744,7 +5736,7 @@
         <v>14</v>
       </c>
       <c r="C28" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="29">
@@ -5777,7 +5769,7 @@
         <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="32">
@@ -5799,7 +5791,7 @@
         <v>110</v>
       </c>
       <c r="C33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34">
@@ -5810,7 +5802,7 @@
         <v>110</v>
       </c>
       <c r="C34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35">
@@ -5821,7 +5813,7 @@
         <v>110</v>
       </c>
       <c r="C35" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36">
@@ -5843,7 +5835,7 @@
         <v>110</v>
       </c>
       <c r="C37" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="38">
@@ -5854,7 +5846,7 @@
         <v>110</v>
       </c>
       <c r="C38" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="39">
@@ -5920,7 +5912,7 @@
         <v>110</v>
       </c>
       <c r="C44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="45">
@@ -5942,7 +5934,7 @@
         <v>110</v>
       </c>
       <c r="C46" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="47">
@@ -5953,7 +5945,7 @@
         <v>110</v>
       </c>
       <c r="C47" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48">
@@ -5997,7 +5989,7 @@
         <v>18</v>
       </c>
       <c r="C51" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52">
@@ -6041,7 +6033,7 @@
         <v>214</v>
       </c>
       <c r="C55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="56">
@@ -6052,7 +6044,7 @@
         <v>214</v>
       </c>
       <c r="C56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="57">
@@ -6071,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="B58" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58" t="s">
         <v>345</v>
-      </c>
-      <c r="C58" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="59">
@@ -6096,7 +6088,7 @@
         <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="61">
@@ -6107,7 +6099,7 @@
         <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62">
@@ -6118,7 +6110,7 @@
         <v>113</v>
       </c>
       <c r="C62" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="63">
@@ -6162,7 +6154,7 @@
         <v>117</v>
       </c>
       <c r="C66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="67">
@@ -6173,7 +6165,7 @@
         <v>117</v>
       </c>
       <c r="C67" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="68">
@@ -6184,7 +6176,7 @@
         <v>117</v>
       </c>
       <c r="C68" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69">
@@ -6195,7 +6187,7 @@
         <v>117</v>
       </c>
       <c r="C69" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="70">
@@ -6206,7 +6198,7 @@
         <v>117</v>
       </c>
       <c r="C70" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="71">
@@ -6250,7 +6242,7 @@
         <v>117</v>
       </c>
       <c r="C74" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75">
@@ -6294,7 +6286,7 @@
         <v>26</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>355</v>
       </c>
     </row>
     <row r="79">
@@ -6360,7 +6352,7 @@
         <v>26</v>
       </c>
       <c r="C84" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="85">
@@ -6390,7 +6382,7 @@
         <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C87" t="s">
         <v>362</v>
@@ -6401,10 +6393,10 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
+        <v>221</v>
+      </c>
+      <c r="C88" t="s">
         <v>222</v>
-      </c>
-      <c r="C88" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="89">
@@ -6412,7 +6404,7 @@
         <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C89" t="s">
         <v>363</v>
@@ -6423,10 +6415,10 @@
         <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C90" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="91">
@@ -6470,7 +6462,7 @@
         <v>34</v>
       </c>
       <c r="C94" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="95">
@@ -6481,7 +6473,7 @@
         <v>34</v>
       </c>
       <c r="C95" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="96">
@@ -6492,7 +6484,7 @@
         <v>34</v>
       </c>
       <c r="C96" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97">
@@ -6503,7 +6495,7 @@
         <v>34</v>
       </c>
       <c r="C97" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="98">
@@ -6555,10 +6547,10 @@
         <v>22</v>
       </c>
       <c r="B102" t="s">
+        <v>228</v>
+      </c>
+      <c r="C102" t="s">
         <v>229</v>
-      </c>
-      <c r="C102" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="103">
@@ -6569,7 +6561,7 @@
         <v>131</v>
       </c>
       <c r="C103" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="104">
@@ -6610,10 +6602,10 @@
         <v>22</v>
       </c>
       <c r="B107" t="s">
+        <v>231</v>
+      </c>
+      <c r="C107" t="s">
         <v>232</v>
-      </c>
-      <c r="C107" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="108">
@@ -6621,10 +6613,10 @@
         <v>22</v>
       </c>
       <c r="B108" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C108" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="109">
@@ -6632,7 +6624,7 @@
         <v>22</v>
       </c>
       <c r="B109" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s">
         <v>367</v>
@@ -6643,10 +6635,10 @@
         <v>22</v>
       </c>
       <c r="B110" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" t="s">
         <v>235</v>
-      </c>
-      <c r="C110" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="111">
@@ -6654,10 +6646,10 @@
         <v>22</v>
       </c>
       <c r="B111" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="112">
@@ -6665,10 +6657,10 @@
         <v>22</v>
       </c>
       <c r="B112" t="s">
+        <v>237</v>
+      </c>
+      <c r="C112" t="s">
         <v>238</v>
-      </c>
-      <c r="C112" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="113">
@@ -6679,7 +6671,7 @@
         <v>41</v>
       </c>
       <c r="C113" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="114">
@@ -6701,7 +6693,7 @@
         <v>134</v>
       </c>
       <c r="C115" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="116">
@@ -6720,10 +6712,10 @@
         <v>22</v>
       </c>
       <c r="B117" t="s">
+        <v>241</v>
+      </c>
+      <c r="C117" t="s">
         <v>242</v>
-      </c>
-      <c r="C117" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="118">
@@ -6742,10 +6734,10 @@
         <v>22</v>
       </c>
       <c r="B119" t="s">
+        <v>243</v>
+      </c>
+      <c r="C119" t="s">
         <v>244</v>
-      </c>
-      <c r="C119" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="120">
@@ -6753,7 +6745,7 @@
         <v>22</v>
       </c>
       <c r="B120" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C120" t="s">
         <v>370</v>
@@ -6764,7 +6756,7 @@
         <v>22</v>
       </c>
       <c r="B121" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C121" t="s">
         <v>371</v>
@@ -6775,7 +6767,7 @@
         <v>22</v>
       </c>
       <c r="B122" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C122" t="s">
         <v>372</v>
@@ -6786,10 +6778,10 @@
         <v>22</v>
       </c>
       <c r="B123" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124">
@@ -6822,7 +6814,7 @@
         <v>44</v>
       </c>
       <c r="C126" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="127">
@@ -6855,7 +6847,7 @@
         <v>44</v>
       </c>
       <c r="C129" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="130">
@@ -6877,7 +6869,7 @@
         <v>44</v>
       </c>
       <c r="C131" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132">
@@ -6896,10 +6888,10 @@
         <v>46</v>
       </c>
       <c r="B133" t="s">
+        <v>249</v>
+      </c>
+      <c r="C133" t="s">
         <v>250</v>
-      </c>
-      <c r="C133" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="134">
@@ -6910,7 +6902,7 @@
         <v>47</v>
       </c>
       <c r="C134" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="135">
@@ -6921,7 +6913,7 @@
         <v>47</v>
       </c>
       <c r="C135" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="136">
@@ -6932,7 +6924,7 @@
         <v>47</v>
       </c>
       <c r="C136" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="137">
@@ -6998,7 +6990,7 @@
         <v>47</v>
       </c>
       <c r="C142" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="143">
@@ -7020,7 +7012,7 @@
         <v>47</v>
       </c>
       <c r="C144" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="145">
@@ -7031,7 +7023,7 @@
         <v>47</v>
       </c>
       <c r="C145" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="146">
@@ -7042,7 +7034,7 @@
         <v>47</v>
       </c>
       <c r="C146" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="147">
@@ -7097,7 +7089,7 @@
         <v>47</v>
       </c>
       <c r="C151" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="152">
@@ -7141,7 +7133,7 @@
         <v>53</v>
       </c>
       <c r="C155" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="156">
@@ -7226,10 +7218,10 @@
         <v>146</v>
       </c>
       <c r="B163" t="s">
+        <v>260</v>
+      </c>
+      <c r="C163" t="s">
         <v>261</v>
-      </c>
-      <c r="C163" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="164">
@@ -7273,7 +7265,7 @@
         <v>58</v>
       </c>
       <c r="C167" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="168">
@@ -7284,7 +7276,7 @@
         <v>58</v>
       </c>
       <c r="C168" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="169">
@@ -7350,7 +7342,7 @@
         <v>66</v>
       </c>
       <c r="C174" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="175">
@@ -7361,7 +7353,7 @@
         <v>66</v>
       </c>
       <c r="C175" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176">
@@ -7383,7 +7375,7 @@
         <v>66</v>
       </c>
       <c r="C177" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="178">
@@ -7438,7 +7430,7 @@
         <v>66</v>
       </c>
       <c r="C182" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="183">
@@ -7460,7 +7452,7 @@
         <v>66</v>
       </c>
       <c r="C184" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="185">
@@ -7471,7 +7463,7 @@
         <v>66</v>
       </c>
       <c r="C185" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186">
@@ -7482,7 +7474,7 @@
         <v>66</v>
       </c>
       <c r="C186" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="187">
@@ -7611,10 +7603,10 @@
         <v>57</v>
       </c>
       <c r="B198" t="s">
+        <v>271</v>
+      </c>
+      <c r="C198" t="s">
         <v>272</v>
-      </c>
-      <c r="C198" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="199">
@@ -7622,10 +7614,10 @@
         <v>57</v>
       </c>
       <c r="B199" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C199" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="200">
@@ -7633,7 +7625,7 @@
         <v>57</v>
       </c>
       <c r="B200" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C200" t="s">
         <v>403</v>
@@ -7644,7 +7636,7 @@
         <v>57</v>
       </c>
       <c r="B201" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C201" t="s">
         <v>404</v>
@@ -7677,10 +7669,10 @@
         <v>79</v>
       </c>
       <c r="B204" t="s">
+        <v>274</v>
+      </c>
+      <c r="C204" t="s">
         <v>275</v>
-      </c>
-      <c r="C204" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="205">
@@ -7688,10 +7680,10 @@
         <v>79</v>
       </c>
       <c r="B205" t="s">
+        <v>276</v>
+      </c>
+      <c r="C205" t="s">
         <v>277</v>
-      </c>
-      <c r="C205" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="206">
@@ -7699,7 +7691,7 @@
         <v>79</v>
       </c>
       <c r="B206" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C206" t="s">
         <v>405</v>
@@ -7713,7 +7705,7 @@
         <v>82</v>
       </c>
       <c r="C207" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="208">
@@ -7724,7 +7716,7 @@
         <v>82</v>
       </c>
       <c r="C208" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="209">
@@ -7735,7 +7727,7 @@
         <v>82</v>
       </c>
       <c r="C209" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210">
@@ -7757,7 +7749,7 @@
         <v>82</v>
       </c>
       <c r="C211" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="212">
@@ -7768,7 +7760,7 @@
         <v>82</v>
       </c>
       <c r="C212" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="213">
@@ -7779,7 +7771,7 @@
         <v>82</v>
       </c>
       <c r="C213" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="214">
@@ -7812,7 +7804,7 @@
         <v>82</v>
       </c>
       <c r="C216" t="s">
-        <v>285</v>
+        <v>407</v>
       </c>
     </row>
     <row r="217">
@@ -7823,7 +7815,7 @@
         <v>82</v>
       </c>
       <c r="C217" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="218">
@@ -7834,7 +7826,7 @@
         <v>82</v>
       </c>
       <c r="C218" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="219">
@@ -7845,7 +7837,7 @@
         <v>82</v>
       </c>
       <c r="C219" t="s">
-        <v>407</v>
+        <v>286</v>
       </c>
     </row>
     <row r="220">
@@ -7867,7 +7859,7 @@
         <v>82</v>
       </c>
       <c r="C221" t="s">
-        <v>174</v>
+        <v>409</v>
       </c>
     </row>
     <row r="222">
@@ -7878,7 +7870,7 @@
         <v>82</v>
       </c>
       <c r="C222" t="s">
-        <v>288</v>
+        <v>174</v>
       </c>
     </row>
     <row r="223">
@@ -7889,7 +7881,7 @@
         <v>82</v>
       </c>
       <c r="C223" t="s">
-        <v>409</v>
+        <v>287</v>
       </c>
     </row>
     <row r="224">
@@ -7911,7 +7903,7 @@
         <v>82</v>
       </c>
       <c r="C225" t="s">
-        <v>289</v>
+        <v>411</v>
       </c>
     </row>
     <row r="226">
@@ -7922,7 +7914,7 @@
         <v>82</v>
       </c>
       <c r="C226" t="s">
-        <v>411</v>
+        <v>288</v>
       </c>
     </row>
     <row r="227">
@@ -7933,7 +7925,7 @@
         <v>82</v>
       </c>
       <c r="C227" t="s">
-        <v>290</v>
+        <v>412</v>
       </c>
     </row>
     <row r="228">
@@ -7944,7 +7936,7 @@
         <v>82</v>
       </c>
       <c r="C228" t="s">
-        <v>175</v>
+        <v>289</v>
       </c>
     </row>
     <row r="229">
@@ -7955,7 +7947,7 @@
         <v>82</v>
       </c>
       <c r="C229" t="s">
-        <v>412</v>
+        <v>175</v>
       </c>
     </row>
     <row r="230">
@@ -7988,7 +7980,7 @@
         <v>82</v>
       </c>
       <c r="C232" t="s">
-        <v>291</v>
+        <v>415</v>
       </c>
     </row>
     <row r="233">
@@ -7999,7 +7991,7 @@
         <v>82</v>
       </c>
       <c r="C233" t="s">
-        <v>415</v>
+        <v>290</v>
       </c>
     </row>
     <row r="234">
@@ -8010,7 +8002,7 @@
         <v>82</v>
       </c>
       <c r="C234" t="s">
-        <v>176</v>
+        <v>416</v>
       </c>
     </row>
     <row r="235">
@@ -8021,7 +8013,7 @@
         <v>82</v>
       </c>
       <c r="C235" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="236">
@@ -8032,7 +8024,7 @@
         <v>82</v>
       </c>
       <c r="C236" t="s">
-        <v>416</v>
+        <v>177</v>
       </c>
     </row>
     <row r="237">
@@ -8076,7 +8068,7 @@
         <v>82</v>
       </c>
       <c r="C240" t="s">
-        <v>292</v>
+        <v>420</v>
       </c>
     </row>
     <row r="241">
@@ -8087,7 +8079,7 @@
         <v>82</v>
       </c>
       <c r="C241" t="s">
-        <v>420</v>
+        <v>291</v>
       </c>
     </row>
     <row r="242">
@@ -8098,7 +8090,7 @@
         <v>82</v>
       </c>
       <c r="C242" t="s">
-        <v>293</v>
+        <v>421</v>
       </c>
     </row>
     <row r="243">
@@ -8109,7 +8101,7 @@
         <v>82</v>
       </c>
       <c r="C243" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="244">
@@ -8120,7 +8112,7 @@
         <v>82</v>
       </c>
       <c r="C244" t="s">
-        <v>421</v>
+        <v>293</v>
       </c>
     </row>
     <row r="245">
@@ -8131,7 +8123,7 @@
         <v>82</v>
       </c>
       <c r="C245" t="s">
-        <v>178</v>
+        <v>422</v>
       </c>
     </row>
     <row r="246">
@@ -8142,7 +8134,7 @@
         <v>82</v>
       </c>
       <c r="C246" t="s">
-        <v>422</v>
+        <v>178</v>
       </c>
     </row>
     <row r="247">
@@ -8164,7 +8156,7 @@
         <v>82</v>
       </c>
       <c r="C248" t="s">
-        <v>295</v>
+        <v>424</v>
       </c>
     </row>
     <row r="249">
@@ -8175,7 +8167,7 @@
         <v>82</v>
       </c>
       <c r="C249" t="s">
-        <v>424</v>
+        <v>294</v>
       </c>
     </row>
     <row r="250">
@@ -8186,7 +8178,7 @@
         <v>82</v>
       </c>
       <c r="C250" t="s">
-        <v>179</v>
+        <v>425</v>
       </c>
     </row>
     <row r="251">
@@ -8197,7 +8189,7 @@
         <v>82</v>
       </c>
       <c r="C251" t="s">
-        <v>296</v>
+        <v>179</v>
       </c>
     </row>
     <row r="252">
@@ -8208,7 +8200,7 @@
         <v>82</v>
       </c>
       <c r="C252" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="253">
@@ -8219,7 +8211,7 @@
         <v>82</v>
       </c>
       <c r="C253" t="s">
-        <v>180</v>
+        <v>296</v>
       </c>
     </row>
     <row r="254">
@@ -8230,7 +8222,7 @@
         <v>82</v>
       </c>
       <c r="C254" t="s">
-        <v>425</v>
+        <v>180</v>
       </c>
     </row>
     <row r="255">
@@ -8252,7 +8244,7 @@
         <v>82</v>
       </c>
       <c r="C256" t="s">
-        <v>298</v>
+        <v>427</v>
       </c>
     </row>
     <row r="257">
@@ -8260,10 +8252,10 @@
         <v>79</v>
       </c>
       <c r="B257" t="s">
-        <v>181</v>
+        <v>82</v>
       </c>
       <c r="C257" t="s">
-        <v>427</v>
+        <v>297</v>
       </c>
     </row>
     <row r="258">
@@ -8285,7 +8277,7 @@
         <v>181</v>
       </c>
       <c r="C259" t="s">
-        <v>299</v>
+        <v>429</v>
       </c>
     </row>
     <row r="260">
@@ -8296,7 +8288,7 @@
         <v>181</v>
       </c>
       <c r="C260" t="s">
-        <v>182</v>
+        <v>298</v>
       </c>
     </row>
     <row r="261">
@@ -8307,7 +8299,7 @@
         <v>181</v>
       </c>
       <c r="C261" t="s">
-        <v>429</v>
+        <v>182</v>
       </c>
     </row>
     <row r="262">
@@ -8315,10 +8307,10 @@
         <v>79</v>
       </c>
       <c r="B262" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C262" t="s">
-        <v>300</v>
+        <v>430</v>
       </c>
     </row>
     <row r="263">
@@ -8329,7 +8321,7 @@
         <v>183</v>
       </c>
       <c r="C263" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="264">
@@ -8340,7 +8332,7 @@
         <v>183</v>
       </c>
       <c r="C264" t="s">
-        <v>184</v>
+        <v>300</v>
       </c>
     </row>
     <row r="265">
@@ -8351,7 +8343,7 @@
         <v>183</v>
       </c>
       <c r="C265" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="266">
@@ -8362,7 +8354,7 @@
         <v>183</v>
       </c>
       <c r="C266" t="s">
-        <v>302</v>
+        <v>185</v>
       </c>
     </row>
     <row r="267">
@@ -8370,10 +8362,10 @@
         <v>79</v>
       </c>
       <c r="B267" t="s">
-        <v>303</v>
+        <v>183</v>
       </c>
       <c r="C267" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="268">
@@ -8381,10 +8373,10 @@
         <v>79</v>
       </c>
       <c r="B268" t="s">
+        <v>302</v>
+      </c>
+      <c r="C268" t="s">
         <v>303</v>
-      </c>
-      <c r="C268" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="269">
@@ -8392,10 +8384,10 @@
         <v>79</v>
       </c>
       <c r="B269" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C269" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="270">
@@ -8403,10 +8395,10 @@
         <v>79</v>
       </c>
       <c r="B270" t="s">
-        <v>87</v>
+        <v>302</v>
       </c>
       <c r="C270" t="s">
-        <v>430</v>
+        <v>305</v>
       </c>
     </row>
     <row r="271">
@@ -8428,7 +8420,7 @@
         <v>87</v>
       </c>
       <c r="C272" t="s">
-        <v>307</v>
+        <v>432</v>
       </c>
     </row>
     <row r="273">
@@ -8439,7 +8431,7 @@
         <v>87</v>
       </c>
       <c r="C273" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="274">
@@ -8450,7 +8442,7 @@
         <v>87</v>
       </c>
       <c r="C274" t="s">
-        <v>432</v>
+        <v>307</v>
       </c>
     </row>
     <row r="275">
@@ -8472,7 +8464,7 @@
         <v>87</v>
       </c>
       <c r="C276" t="s">
-        <v>309</v>
+        <v>434</v>
       </c>
     </row>
     <row r="277">
@@ -8483,7 +8475,7 @@
         <v>87</v>
       </c>
       <c r="C277" t="s">
-        <v>434</v>
+        <v>308</v>
       </c>
     </row>
     <row r="278">
@@ -8505,7 +8497,7 @@
         <v>87</v>
       </c>
       <c r="C279" t="s">
-        <v>310</v>
+        <v>436</v>
       </c>
     </row>
     <row r="280">
@@ -8516,7 +8508,7 @@
         <v>87</v>
       </c>
       <c r="C280" t="s">
-        <v>436</v>
+        <v>309</v>
       </c>
     </row>
     <row r="281">
@@ -8549,7 +8541,7 @@
         <v>87</v>
       </c>
       <c r="C283" t="s">
-        <v>311</v>
+        <v>439</v>
       </c>
     </row>
     <row r="284">
@@ -8560,7 +8552,7 @@
         <v>87</v>
       </c>
       <c r="C284" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="285">
@@ -8571,7 +8563,7 @@
         <v>87</v>
       </c>
       <c r="C285" t="s">
-        <v>439</v>
+        <v>311</v>
       </c>
     </row>
     <row r="286">
@@ -8582,7 +8574,7 @@
         <v>87</v>
       </c>
       <c r="C286" t="s">
-        <v>313</v>
+        <v>440</v>
       </c>
     </row>
     <row r="287">
@@ -8593,7 +8585,7 @@
         <v>87</v>
       </c>
       <c r="C287" t="s">
-        <v>440</v>
+        <v>312</v>
       </c>
     </row>
     <row r="288">
@@ -8604,7 +8596,7 @@
         <v>87</v>
       </c>
       <c r="C288" t="s">
-        <v>314</v>
+        <v>441</v>
       </c>
     </row>
     <row r="289">
@@ -8615,7 +8607,7 @@
         <v>87</v>
       </c>
       <c r="C289" t="s">
-        <v>441</v>
+        <v>313</v>
       </c>
     </row>
     <row r="290">
@@ -8626,7 +8618,7 @@
         <v>87</v>
       </c>
       <c r="C290" t="s">
-        <v>186</v>
+        <v>442</v>
       </c>
     </row>
     <row r="291">
@@ -8637,7 +8629,7 @@
         <v>87</v>
       </c>
       <c r="C291" t="s">
-        <v>442</v>
+        <v>186</v>
       </c>
     </row>
     <row r="292">
@@ -8700,7 +8692,7 @@
         <v>79</v>
       </c>
       <c r="B297" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C297" t="s">
         <v>448</v>
@@ -8725,7 +8717,7 @@
         <v>93</v>
       </c>
       <c r="C299" t="s">
-        <v>187</v>
+        <v>450</v>
       </c>
     </row>
     <row r="300">
@@ -8736,7 +8728,7 @@
         <v>93</v>
       </c>
       <c r="C300" t="s">
-        <v>315</v>
+        <v>187</v>
       </c>
     </row>
     <row r="301">
@@ -8747,7 +8739,7 @@
         <v>93</v>
       </c>
       <c r="C301" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="302">
@@ -8758,7 +8750,7 @@
         <v>93</v>
       </c>
       <c r="C302" t="s">
-        <v>450</v>
+        <v>315</v>
       </c>
     </row>
     <row r="303">
@@ -8777,7 +8769,7 @@
         <v>79</v>
       </c>
       <c r="B304" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C304" t="s">
         <v>452</v>
@@ -8802,7 +8794,7 @@
         <v>95</v>
       </c>
       <c r="C306" t="s">
-        <v>317</v>
+        <v>454</v>
       </c>
     </row>
     <row r="307">
@@ -8813,7 +8805,7 @@
         <v>95</v>
       </c>
       <c r="C307" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="308">
@@ -8824,7 +8816,7 @@
         <v>95</v>
       </c>
       <c r="C308" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="309">
@@ -8835,7 +8827,7 @@
         <v>95</v>
       </c>
       <c r="C309" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="310">
@@ -8846,7 +8838,7 @@
         <v>95</v>
       </c>
       <c r="C310" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="311">
@@ -8857,7 +8849,7 @@
         <v>95</v>
       </c>
       <c r="C311" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="312">
@@ -8868,7 +8860,7 @@
         <v>95</v>
       </c>
       <c r="C312" t="s">
-        <v>454</v>
+        <v>321</v>
       </c>
     </row>
     <row r="313">
@@ -8912,7 +8904,7 @@
         <v>95</v>
       </c>
       <c r="C316" t="s">
-        <v>323</v>
+        <v>458</v>
       </c>
     </row>
     <row r="317">
@@ -8923,7 +8915,7 @@
         <v>95</v>
       </c>
       <c r="C317" t="s">
-        <v>458</v>
+        <v>322</v>
       </c>
     </row>
     <row r="318">
@@ -8956,7 +8948,7 @@
         <v>95</v>
       </c>
       <c r="C320" t="s">
-        <v>324</v>
+        <v>461</v>
       </c>
     </row>
     <row r="321">
@@ -8967,7 +8959,7 @@
         <v>95</v>
       </c>
       <c r="C321" t="s">
-        <v>461</v>
+        <v>323</v>
       </c>
     </row>
     <row r="322">
@@ -9022,7 +9014,7 @@
         <v>95</v>
       </c>
       <c r="C326" t="s">
-        <v>325</v>
+        <v>466</v>
       </c>
     </row>
     <row r="327">
@@ -9033,7 +9025,18 @@
         <v>95</v>
       </c>
       <c r="C327" t="s">
-        <v>326</v>
+        <v>324</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>79</v>
+      </c>
+      <c r="B328" t="s">
+        <v>95</v>
+      </c>
+      <c r="C328" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -9319,10 +9322,10 @@
         <v>22</v>
       </c>
       <c r="B25" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" t="s">
         <v>222</v>
-      </c>
-      <c r="C25" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="26">
@@ -9440,32 +9443,32 @@
         <v>22</v>
       </c>
       <c r="B36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" t="s">
         <v>244</v>
-      </c>
-      <c r="C36" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>243</v>
       </c>
       <c r="C37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C38" t="s">
-        <v>136</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39">
@@ -9476,7 +9479,7 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="40">
@@ -9487,7 +9490,7 @@
         <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>255</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41">
@@ -9498,7 +9501,7 @@
         <v>47</v>
       </c>
       <c r="C41" t="s">
-        <v>138</v>
+        <v>254</v>
       </c>
     </row>
     <row r="42">
@@ -9509,7 +9512,7 @@
         <v>47</v>
       </c>
       <c r="C42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="43">
@@ -9520,18 +9523,18 @@
         <v>47</v>
       </c>
       <c r="C43" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B44" t="s">
-        <v>141</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="45">
@@ -9542,7 +9545,7 @@
         <v>141</v>
       </c>
       <c r="C45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46">
@@ -9553,7 +9556,7 @@
         <v>141</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="47">
@@ -9564,29 +9567,29 @@
         <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C48" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>146</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
     </row>
     <row r="50">
@@ -9597,7 +9600,7 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51">
@@ -9608,7 +9611,7 @@
         <v>58</v>
       </c>
       <c r="C51" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="52">
@@ -9616,10 +9619,10 @@
         <v>57</v>
       </c>
       <c r="B52" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
@@ -9627,10 +9630,10 @@
         <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="54">
@@ -9641,7 +9644,7 @@
         <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55">
@@ -9652,7 +9655,7 @@
         <v>66</v>
       </c>
       <c r="C55" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="56">
@@ -9663,7 +9666,7 @@
         <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57">
@@ -9674,7 +9677,7 @@
         <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="58">
@@ -9685,7 +9688,7 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>268</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59">
@@ -9696,7 +9699,7 @@
         <v>66</v>
       </c>
       <c r="C59" t="s">
-        <v>157</v>
+        <v>267</v>
       </c>
     </row>
     <row r="60">
@@ -9707,7 +9710,7 @@
         <v>66</v>
       </c>
       <c r="C60" t="s">
-        <v>270</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61">
@@ -9861,7 +9864,7 @@
         <v>82</v>
       </c>
       <c r="C74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="75">
@@ -9916,7 +9919,7 @@
         <v>82</v>
       </c>
       <c r="C79" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="80">
@@ -9971,7 +9974,7 @@
         <v>183</v>
       </c>
       <c r="C84" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85">
@@ -10004,7 +10007,7 @@
         <v>87</v>
       </c>
       <c r="C87" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="88">
